--- a/data-raw/data-tidy/hack-tianyan/hub/match-tianyan-tot286-2021-08-19.xlsx
+++ b/data-raw/data-tidy/hack-tianyan/hub/match-tianyan-tot286-2021-08-19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\techme\data-raw\data-tidy\hack-tianyan\hub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA179FC-3ACF-42AF-A590-634FF04A0CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D412EEFA-DA98-4D75-87AC-3EE84D28C0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9878" yWindow="8002" windowWidth="24496" windowHeight="15795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2123" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="922">
   <si>
     <t>index</t>
   </si>
@@ -2905,6 +2905,143 @@
   </si>
   <si>
     <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业和信息化部电子第五研究所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市天河区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家安全生产监督管理总局职业安全卫生研究中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>北京市门头沟区石龙北路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国科学院测量与地球物理研究所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>湖北省武汉市徐东大街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>340</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国科学院电子学研究所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>北京市海淀区北四环西路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国科学院光电技术研究所</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3297,8 +3434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I287"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="G148" sqref="G148:I149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3562,24 +3699,27 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>46</v>
+      <c r="B10" s="1" t="s">
+        <v>911</v>
       </c>
       <c r="C10" t="s">
         <v>46</v>
       </c>
-      <c r="D10" t="s">
-        <v>47</v>
+      <c r="D10" s="3" t="s">
+        <v>912</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>47</v>
       </c>
       <c r="F10" t="s">
         <v>48</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3630,25 +3770,37 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>55</v>
+      <c r="B13" s="1" t="s">
+        <v>914</v>
       </c>
       <c r="C13" t="s">
         <v>55</v>
       </c>
-      <c r="D13" t="s">
-        <v>11</v>
+      <c r="D13" s="2" t="s">
+        <v>916</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>47</v>
+        <v>915</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
+      </c>
+      <c r="H13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -6907,24 +7059,27 @@
         <v>45</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" t="s">
-        <v>434</v>
+      <c r="B133" s="1" t="s">
+        <v>917</v>
       </c>
       <c r="C133" t="s">
         <v>434</v>
       </c>
-      <c r="D133" t="s">
-        <v>47</v>
+      <c r="D133" s="4" t="s">
+        <v>918</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>47</v>
       </c>
       <c r="F133" t="s">
         <v>435</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -7121,24 +7276,30 @@
         <v>45</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" t="s">
-        <v>458</v>
+      <c r="B141" s="1" t="s">
+        <v>919</v>
       </c>
       <c r="C141" t="s">
         <v>458</v>
       </c>
-      <c r="D141" t="s">
-        <v>47</v>
+      <c r="D141" s="4" t="s">
+        <v>920</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>47</v>
       </c>
       <c r="F141" t="s">
         <v>459</v>
+      </c>
+      <c r="H141" t="s">
+        <v>45</v>
+      </c>
+      <c r="I141" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -7297,12 +7458,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" t="s">
-        <v>477</v>
+      <c r="B148" s="1" t="s">
+        <v>921</v>
       </c>
       <c r="C148" t="s">
         <v>477</v>
@@ -7345,6 +7506,15 @@
       <c r="F149" t="s">
         <v>481</v>
       </c>
+      <c r="G149" t="s">
+        <v>27</v>
+      </c>
+      <c r="H149" t="s">
+        <v>28</v>
+      </c>
+      <c r="I149" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
@@ -8198,6 +8368,12 @@
       </c>
       <c r="F180" t="s">
         <v>575</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="I180" s="3" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
